--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Ryk</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H2">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.915438</v>
+        <v>12.3291175</v>
       </c>
       <c r="N2">
-        <v>17.830876</v>
+        <v>24.658235</v>
       </c>
       <c r="O2">
-        <v>0.1330966619879936</v>
+        <v>0.1991607983368005</v>
       </c>
       <c r="P2">
-        <v>0.1044454436141807</v>
+        <v>0.1614453197874725</v>
       </c>
       <c r="Q2">
-        <v>41.18119268054401</v>
+        <v>1.5487220947625</v>
       </c>
       <c r="R2">
-        <v>247.087156083264</v>
+        <v>6.19488837905</v>
       </c>
       <c r="S2">
-        <v>0.1330966619879936</v>
+        <v>0.005272739660011848</v>
       </c>
       <c r="T2">
-        <v>0.1044454436141807</v>
+        <v>0.002874857351196145</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H3">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>86.10216500000001</v>
       </c>
       <c r="O3">
-        <v>0.42846691889729</v>
+        <v>0.4636226915653649</v>
       </c>
       <c r="P3">
-        <v>0.5043486825642435</v>
+        <v>0.563738303362699</v>
       </c>
       <c r="Q3">
-        <v>132.57115904184</v>
+        <v>3.605241152158334</v>
       </c>
       <c r="R3">
-        <v>1193.14043137656</v>
+        <v>21.63144691295</v>
       </c>
       <c r="S3">
-        <v>0.42846691889729</v>
+        <v>0.01227431188021322</v>
       </c>
       <c r="T3">
-        <v>0.5043486825642435</v>
+        <v>0.01003848985964135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H4">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2432513333333333</v>
+        <v>0.073231</v>
       </c>
       <c r="N4">
-        <v>0.729754</v>
+        <v>0.219693</v>
       </c>
       <c r="O4">
-        <v>0.003631446990130538</v>
+        <v>0.001182951206605196</v>
       </c>
       <c r="P4">
-        <v>0.004274578560202138</v>
+        <v>0.001438400057427841</v>
       </c>
       <c r="Q4">
-        <v>1.123599314784</v>
+        <v>0.009198912065</v>
       </c>
       <c r="R4">
-        <v>10.112393833056</v>
+        <v>0.05519347239000001</v>
       </c>
       <c r="S4">
-        <v>0.003631446990130538</v>
+        <v>3.131838090133602E-05</v>
       </c>
       <c r="T4">
-        <v>0.004274578560202138</v>
+        <v>2.561359464926565E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H5">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.3190975</v>
+        <v>20.652629</v>
       </c>
       <c r="N5">
-        <v>42.638195</v>
+        <v>41.30525799999999</v>
       </c>
       <c r="O5">
-        <v>0.3182682347010409</v>
+        <v>0.3336162608064818</v>
       </c>
       <c r="P5">
-        <v>0.2497558275702743</v>
+        <v>0.2704386825218454</v>
       </c>
       <c r="Q5">
-        <v>98.47478743308</v>
+        <v>2.594279991835</v>
       </c>
       <c r="R5">
-        <v>590.84872459848</v>
+        <v>10.37711996734</v>
       </c>
       <c r="S5">
-        <v>0.3182682347010409</v>
+        <v>0.008832419352951324</v>
       </c>
       <c r="T5">
-        <v>0.2497558275702743</v>
+        <v>0.004815702527141679</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H6">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>7.535582333333333</v>
+        <v>0.05032066666666666</v>
       </c>
       <c r="N6">
-        <v>22.606747</v>
+        <v>0.150962</v>
       </c>
       <c r="O6">
-        <v>0.1124970926501157</v>
+        <v>0.0008128646795825703</v>
       </c>
       <c r="P6">
-        <v>0.1324203992607289</v>
+        <v>0.0009883963051595711</v>
       </c>
       <c r="Q6">
-        <v>34.80751792891201</v>
+        <v>0.006321030543333332</v>
       </c>
       <c r="R6">
-        <v>313.267661360208</v>
+        <v>0.03792618326</v>
       </c>
       <c r="S6">
-        <v>0.1124970926501157</v>
+        <v>2.152041902849653E-05</v>
       </c>
       <c r="T6">
-        <v>0.1324203992607289</v>
+        <v>1.760037632260672E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H7">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2705943333333333</v>
+        <v>0.09932299999999999</v>
       </c>
       <c r="N7">
-        <v>0.8117829999999999</v>
+        <v>0.297969</v>
       </c>
       <c r="O7">
-        <v>0.004039644773429317</v>
+        <v>0.001604433405165134</v>
       </c>
       <c r="P7">
-        <v>0.00475506843037047</v>
+        <v>0.001950897965395876</v>
       </c>
       <c r="Q7">
-        <v>1.249899037968</v>
+        <v>0.012476458645</v>
       </c>
       <c r="R7">
-        <v>11.249091341712</v>
+        <v>0.07485875187</v>
       </c>
       <c r="S7">
-        <v>0.004039644773429317</v>
+        <v>4.247703221673059E-05</v>
       </c>
       <c r="T7">
-        <v>0.00475506843037047</v>
+        <v>3.473964661617363E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H8">
+        <v>13.857264</v>
+      </c>
+      <c r="I8">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J8">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>12.3291175</v>
+      </c>
+      <c r="N8">
+        <v>24.658235</v>
+      </c>
+      <c r="O8">
+        <v>0.1991607983368005</v>
+      </c>
+      <c r="P8">
+        <v>0.1614453197874725</v>
+      </c>
+      <c r="Q8">
+        <v>56.94927869484</v>
+      </c>
+      <c r="R8">
+        <v>341.69567216904</v>
+      </c>
+      <c r="S8">
+        <v>0.1938880586767887</v>
+      </c>
+      <c r="T8">
+        <v>0.1585704624362763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H9">
+        <v>13.857264</v>
+      </c>
+      <c r="I9">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J9">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>28.70072166666667</v>
+      </c>
+      <c r="N9">
+        <v>86.10216500000001</v>
+      </c>
+      <c r="O9">
+        <v>0.4636226915653649</v>
+      </c>
+      <c r="P9">
+        <v>0.563738303362699</v>
+      </c>
+      <c r="Q9">
+        <v>132.57115904184</v>
+      </c>
+      <c r="R9">
+        <v>1193.14043137656</v>
+      </c>
+      <c r="S9">
+        <v>0.4513483796851517</v>
+      </c>
+      <c r="T9">
+        <v>0.5536998135030577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H10">
+        <v>13.857264</v>
+      </c>
+      <c r="I10">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J10">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.073231</v>
+      </c>
+      <c r="N10">
+        <v>0.219693</v>
+      </c>
+      <c r="O10">
+        <v>0.001182951206605196</v>
+      </c>
+      <c r="P10">
+        <v>0.001438400057427841</v>
+      </c>
+      <c r="Q10">
+        <v>0.338260433328</v>
+      </c>
+      <c r="R10">
+        <v>3.044343899952</v>
+      </c>
+      <c r="S10">
+        <v>0.00115163282570386</v>
+      </c>
+      <c r="T10">
+        <v>0.001412786462778575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H11">
+        <v>13.857264</v>
+      </c>
+      <c r="I11">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J11">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>20.652629</v>
+      </c>
+      <c r="N11">
+        <v>41.30525799999999</v>
+      </c>
+      <c r="O11">
+        <v>0.3336162608064818</v>
+      </c>
+      <c r="P11">
+        <v>0.2704386825218454</v>
+      </c>
+      <c r="Q11">
+        <v>95.396310782352</v>
+      </c>
+      <c r="R11">
+        <v>572.377864694112</v>
+      </c>
+      <c r="S11">
+        <v>0.3247838414535305</v>
+      </c>
+      <c r="T11">
+        <v>0.2656229799947037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H12">
+        <v>13.857264</v>
+      </c>
+      <c r="I12">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J12">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.05032066666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.150962</v>
+      </c>
+      <c r="O12">
+        <v>0.0008128646795825703</v>
+      </c>
+      <c r="P12">
+        <v>0.0009883963051595711</v>
+      </c>
+      <c r="Q12">
+        <v>0.232435587552</v>
+      </c>
+      <c r="R12">
+        <v>2.091920287968</v>
+      </c>
+      <c r="S12">
+        <v>0.0007913442605540738</v>
+      </c>
+      <c r="T12">
+        <v>0.0009707959288369645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H13">
+        <v>13.857264</v>
+      </c>
+      <c r="I13">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J13">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.09932299999999999</v>
+      </c>
+      <c r="N13">
+        <v>0.297969</v>
+      </c>
+      <c r="O13">
+        <v>0.001604433405165134</v>
+      </c>
+      <c r="P13">
+        <v>0.001950897965395876</v>
+      </c>
+      <c r="Q13">
+        <v>0.458781677424</v>
+      </c>
+      <c r="R13">
+        <v>4.129035096816</v>
+      </c>
+      <c r="S13">
+        <v>0.001561956372948403</v>
+      </c>
+      <c r="T13">
+        <v>0.001916158318779703</v>
       </c>
     </row>
   </sheetData>
